--- a/0125路西法传说挑战资源拆解.xlsx
+++ b/0125路西法传说挑战资源拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mevil\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BED2DCE0-CDCB-4723-A591-E9FCD1159A7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{10AEA42F-8417-4CAC-A344-39D400B5FC36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
